--- a/asin.xlsx
+++ b/asin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cinoxil/Documents/amazonApi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cinoxil/Documents/GitHub/amazonApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E00C7F-78C0-8A46-888E-32C0DA69A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0770D-FA74-504E-AA54-CCDC3EADAA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="760" windowWidth="29060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">
 B0009I3T3S</t>
@@ -28,6 +28,33 @@
   <si>
     <t xml:space="preserve">
 B000AMUWLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+B000AS3GSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+B000AU4RTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+B000B6I54G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+B000BQQUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+B000BRF7QE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+B000BS02K4</t>
+  </si>
+  <si>
+    <t>B000BZX6UK</t>
   </si>
 </sst>
 </file>
@@ -70,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -83,9 +110,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +428,7 @@
   <dimension ref="A1:AE201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -412,8 +436,8 @@
     <col min="1" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="28">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -447,8 +471,8 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="28">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:31">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -483,7 +507,9 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -516,7 +542,9 @@
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -549,7 +577,9 @@
       <c r="AE4" s="2"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -582,7 +612,9 @@
       <c r="AE5" s="2"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -615,7 +647,9 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -648,7 +682,9 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -680,8 +716,10 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:31" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1374,7 +1412,6 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>

--- a/asin.xlsx
+++ b/asin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cinoxil/Documents/GitHub/amazonApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E96C14-05EF-9749-8298-562941DD0719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C0D8C-F05D-2144-934E-CF7BDF72BDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="760" windowWidth="29060" windowHeight="18880" xr2:uid="{158645D5-850D-41F0-95C1-16351D235427}"/>
   </bookViews>
@@ -35,123 +35,603 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>B074DDCW8B</t>
-  </si>
-  <si>
-    <t>B0734KRL5N</t>
-  </si>
-  <si>
-    <t>B08BVVJCFQ</t>
-  </si>
-  <si>
-    <t>B0022H79MG</t>
-  </si>
-  <si>
-    <t>B000HHSETU</t>
-  </si>
-  <si>
-    <t>B08PDSVVMQ</t>
-  </si>
-  <si>
-    <t>B007TU2Y0I</t>
-  </si>
-  <si>
-    <t>B008GXKC56</t>
-  </si>
-  <si>
-    <t>B01N02JQX8</t>
-  </si>
-  <si>
-    <t>B00005A43X</t>
-  </si>
-  <si>
-    <t>B0009I3T3S</t>
-  </si>
-  <si>
-    <t>B000AMUWLK</t>
-  </si>
-  <si>
-    <t>B000AS3GSK</t>
-  </si>
-  <si>
-    <t>B000AU4RTU</t>
-  </si>
-  <si>
-    <t>B000B6I54G</t>
-  </si>
-  <si>
-    <t>B000BQQUNE</t>
-  </si>
-  <si>
-    <t>B000BRF7QE</t>
-  </si>
-  <si>
-    <t>B000BS02K4</t>
-  </si>
-  <si>
-    <t>B000BX1IG6</t>
-  </si>
-  <si>
-    <t>B000BZX6UK</t>
-  </si>
-  <si>
-    <t>B000C025GA</t>
-  </si>
-  <si>
-    <t>B000C027P4</t>
-  </si>
-  <si>
-    <t>B000C029PM</t>
-  </si>
-  <si>
-    <t>B000CQ26DQ</t>
-  </si>
-  <si>
-    <t>B000E1B6HQ</t>
-  </si>
-  <si>
-    <t>B000E1VZHC</t>
-  </si>
-  <si>
-    <t>B000E7RPZM</t>
-  </si>
-  <si>
-    <t>B000EJ1VVE</t>
-  </si>
-  <si>
-    <t>B000F09CEA</t>
-  </si>
-  <si>
-    <t>B000F6XGYG</t>
-  </si>
-  <si>
-    <t>B000FG0F9U</t>
-  </si>
-  <si>
-    <t>B000FPL680</t>
-  </si>
-  <si>
-    <t>B000FWAP8A</t>
-  </si>
-  <si>
-    <t>B000GGHS62</t>
-  </si>
-  <si>
-    <t>B000GOYAPQ</t>
-  </si>
-  <si>
-    <t>B000GUFOC8</t>
-  </si>
-  <si>
-    <t>B000GUKTDM</t>
-  </si>
-  <si>
-    <t>B000HAAOKY</t>
-  </si>
-  <si>
-    <t>B000HE8IEO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
+  <si>
+    <t>B0847BSQQ5</t>
+  </si>
+  <si>
+    <t>B01GQMPJOC</t>
+  </si>
+  <si>
+    <t>B079YM7Y6J</t>
+  </si>
+  <si>
+    <t>B00IU4Q5IE</t>
+  </si>
+  <si>
+    <t>B07G6624KR</t>
+  </si>
+  <si>
+    <t>B00HU6N3LK</t>
+  </si>
+  <si>
+    <t>B07THDSJKT</t>
+  </si>
+  <si>
+    <t>B00ZSNYRKI</t>
+  </si>
+  <si>
+    <t>B00HYL4HK2</t>
+  </si>
+  <si>
+    <t>B00JPHLIZA</t>
+  </si>
+  <si>
+    <t>B07V8SCY49</t>
+  </si>
+  <si>
+    <t>B073YFRCXD</t>
+  </si>
+  <si>
+    <t>B000RPXQS6</t>
+  </si>
+  <si>
+    <t>B07MPCMXGR</t>
+  </si>
+  <si>
+    <t>B0871XT2TN</t>
+  </si>
+  <si>
+    <t>B005LL3ZXW</t>
+  </si>
+  <si>
+    <t>B00JWTRA5I</t>
+  </si>
+  <si>
+    <t>B07V329KWB</t>
+  </si>
+  <si>
+    <t>B00JYFN6DU</t>
+  </si>
+  <si>
+    <t>B07N4F4HWB</t>
+  </si>
+  <si>
+    <t>B07TKWRP4M</t>
+  </si>
+  <si>
+    <t>B000F4SP9Y</t>
+  </si>
+  <si>
+    <t>B00S1VT9IO</t>
+  </si>
+  <si>
+    <t>B0834XYZ3R</t>
+  </si>
+  <si>
+    <t>B008ZRHAEE</t>
+  </si>
+  <si>
+    <t>B00NJA0QZW</t>
+  </si>
+  <si>
+    <t>B0017HSR1Y</t>
+  </si>
+  <si>
+    <t>B0097TYQQ4</t>
+  </si>
+  <si>
+    <t>B07K17PZP8</t>
+  </si>
+  <si>
+    <t>B07ZH1VBSL</t>
+  </si>
+  <si>
+    <t>B07QSW6KNY</t>
+  </si>
+  <si>
+    <t>B07TS37SR1</t>
+  </si>
+  <si>
+    <t>B07KGK45QR</t>
+  </si>
+  <si>
+    <t>B082SRC3YR</t>
+  </si>
+  <si>
+    <t>B00RG6RKVI</t>
+  </si>
+  <si>
+    <t>B083K455HY</t>
+  </si>
+  <si>
+    <t>B01LY0GIZV</t>
+  </si>
+  <si>
+    <t>B06XPKM5J1</t>
+  </si>
+  <si>
+    <t>B07HB7MC9Y</t>
+  </si>
+  <si>
+    <t>B07S1Q7NQD</t>
+  </si>
+  <si>
+    <t>B085Y52XP8</t>
+  </si>
+  <si>
+    <t>B086X66TJS</t>
+  </si>
+  <si>
+    <t>B002ZG8H98</t>
+  </si>
+  <si>
+    <t>B00AYHMCNC</t>
+  </si>
+  <si>
+    <t>B00TET0MS8</t>
+  </si>
+  <si>
+    <t>B0111RNZDY</t>
+  </si>
+  <si>
+    <t>B00D4MWKNQ</t>
+  </si>
+  <si>
+    <t>B00LXFUB14</t>
+  </si>
+  <si>
+    <t>B01N2TL9U7</t>
+  </si>
+  <si>
+    <t>B07H8WTFHW</t>
+  </si>
+  <si>
+    <t>B07XH34VM8</t>
+  </si>
+  <si>
+    <t>B07YYHRGJ8</t>
+  </si>
+  <si>
+    <t>B00NJA26T6</t>
+  </si>
+  <si>
+    <t>B07P6HBD1N</t>
+  </si>
+  <si>
+    <t>B086RDYQ56</t>
+  </si>
+  <si>
+    <t>B002L9AINM</t>
+  </si>
+  <si>
+    <t>B075368FPY</t>
+  </si>
+  <si>
+    <t>B07CGBK5D9</t>
+  </si>
+  <si>
+    <t>B07RVD237W</t>
+  </si>
+  <si>
+    <t>B07SNVZZCF</t>
+  </si>
+  <si>
+    <t>B08V8QMWS7</t>
+  </si>
+  <si>
+    <t>B00LH28WK0</t>
+  </si>
+  <si>
+    <t>B0195M6C2I</t>
+  </si>
+  <si>
+    <t>B01GUXT4CK</t>
+  </si>
+  <si>
+    <t>B01H7HR2OA</t>
+  </si>
+  <si>
+    <t>B07DFBR6Y3</t>
+  </si>
+  <si>
+    <t>B07TKXCG7M</t>
+  </si>
+  <si>
+    <t>B07ZY6B3LS</t>
+  </si>
+  <si>
+    <t>B000W07CL8</t>
+  </si>
+  <si>
+    <t>B01BBTS3JI</t>
+  </si>
+  <si>
+    <t>B06XXQF4DB</t>
+  </si>
+  <si>
+    <t>B07847WYN2</t>
+  </si>
+  <si>
+    <t>B078PBV73S</t>
+  </si>
+  <si>
+    <t>B07QWKXZVW</t>
+  </si>
+  <si>
+    <t>B081HDGNLQ</t>
+  </si>
+  <si>
+    <t>B0855MXW7T</t>
+  </si>
+  <si>
+    <t>B08HB27BJZ</t>
+  </si>
+  <si>
+    <t>B01NCX03Z3</t>
+  </si>
+  <si>
+    <t>B07RLYHT4N</t>
+  </si>
+  <si>
+    <t>B07Y3X5JDZ</t>
+  </si>
+  <si>
+    <t>B08294XHC7</t>
+  </si>
+  <si>
+    <t>B00SAKS6T4</t>
+  </si>
+  <si>
+    <t>B074CK3QSH</t>
+  </si>
+  <si>
+    <t>B0787PB7CQ</t>
+  </si>
+  <si>
+    <t>B07B4VY1QH</t>
+  </si>
+  <si>
+    <t>B07BS5RPX9</t>
+  </si>
+  <si>
+    <t>B07CVX3516</t>
+  </si>
+  <si>
+    <t>B07GGT62T7</t>
+  </si>
+  <si>
+    <t>B07RW8DXZ7</t>
+  </si>
+  <si>
+    <t>B07ZPF51N6</t>
+  </si>
+  <si>
+    <t>B083QH9683</t>
+  </si>
+  <si>
+    <t>B002NL165W</t>
+  </si>
+  <si>
+    <t>B00ZY6JHU4</t>
+  </si>
+  <si>
+    <t>B07115ZZBM</t>
+  </si>
+  <si>
+    <t>B076Q8F57P</t>
+  </si>
+  <si>
+    <t>B07B4113DZ</t>
+  </si>
+  <si>
+    <t>B07BSFLM8G</t>
+  </si>
+  <si>
+    <t>B07CHH8RWB</t>
+  </si>
+  <si>
+    <t>B07NXY2LPF</t>
+  </si>
+  <si>
+    <t>B07RB12HHQ</t>
+  </si>
+  <si>
+    <t>B07VW354DG</t>
+  </si>
+  <si>
+    <t>B08SJ4HVSY</t>
+  </si>
+  <si>
+    <t>B000I6PX1M</t>
+  </si>
+  <si>
+    <t>B00ADUXF5E</t>
+  </si>
+  <si>
+    <t>B01HAFT5HG</t>
+  </si>
+  <si>
+    <t>B01N06O80F</t>
+  </si>
+  <si>
+    <t>B06VT3QVG4</t>
+  </si>
+  <si>
+    <t>B06Y2BFDJ6</t>
+  </si>
+  <si>
+    <t>B07545BKZW</t>
+  </si>
+  <si>
+    <t>B0777DRJKN</t>
+  </si>
+  <si>
+    <t>B07HY57YYB</t>
+  </si>
+  <si>
+    <t>B07L8J3L4P</t>
+  </si>
+  <si>
+    <t>B07PV5LCZX</t>
+  </si>
+  <si>
+    <t>B07WLWL42G</t>
+  </si>
+  <si>
+    <t>B08346GNS5</t>
+  </si>
+  <si>
+    <t>B084G8X7MF</t>
+  </si>
+  <si>
+    <t>B085XSQ174</t>
+  </si>
+  <si>
+    <t>B08B2GFJ1C</t>
+  </si>
+  <si>
+    <t>B000VK7UZW</t>
+  </si>
+  <si>
+    <t>B009AYAH6E</t>
+  </si>
+  <si>
+    <t>B00T5MW2Q4</t>
+  </si>
+  <si>
+    <t>B00YE4J63K</t>
+  </si>
+  <si>
+    <t>B00YHMQDC6</t>
+  </si>
+  <si>
+    <t>B019N3UBFS</t>
+  </si>
+  <si>
+    <t>B01BXDTSXW</t>
+  </si>
+  <si>
+    <t>B01DRX4FCK</t>
+  </si>
+  <si>
+    <t>B01G7Q8MSW</t>
+  </si>
+  <si>
+    <t>B07CH4GC22</t>
+  </si>
+  <si>
+    <t>B07DK6WPCJ</t>
+  </si>
+  <si>
+    <t>B07HR3GL6V</t>
+  </si>
+  <si>
+    <t>B07MB2KZNF</t>
+  </si>
+  <si>
+    <t>B07MQ2MSND</t>
+  </si>
+  <si>
+    <t>B07VH54Y9R</t>
+  </si>
+  <si>
+    <t>B07W79G42M</t>
+  </si>
+  <si>
+    <t>B07WKG364H</t>
+  </si>
+  <si>
+    <t>B07XCND8ZJ</t>
+  </si>
+  <si>
+    <t>B07ZGYCRXF</t>
+  </si>
+  <si>
+    <t>B08FHY542M</t>
+  </si>
+  <si>
+    <t>B08FZHF7JX</t>
+  </si>
+  <si>
+    <t>B000QUMSIQ</t>
+  </si>
+  <si>
+    <t>B003DR0SEK</t>
+  </si>
+  <si>
+    <t>B007EBRA6A</t>
+  </si>
+  <si>
+    <t>B00AZO7G7G</t>
+  </si>
+  <si>
+    <t>B00WHEM0UA</t>
+  </si>
+  <si>
+    <t>B00WNDG7V8</t>
+  </si>
+  <si>
+    <t>B00XJDEVJQ</t>
+  </si>
+  <si>
+    <t>B00XPCY4V6</t>
+  </si>
+  <si>
+    <t>B00YNYH8EK</t>
+  </si>
+  <si>
+    <t>B017AM1AAY</t>
+  </si>
+  <si>
+    <t>B01AUZWM64</t>
+  </si>
+  <si>
+    <t>B01EKFQFDG</t>
+  </si>
+  <si>
+    <t>B01MZEEFNX</t>
+  </si>
+  <si>
+    <t>B07349ZS7C</t>
+  </si>
+  <si>
+    <t>B075DVXBPB</t>
+  </si>
+  <si>
+    <t>B077PTW33R</t>
+  </si>
+  <si>
+    <t>B079KZW77L</t>
+  </si>
+  <si>
+    <t>B07DCK1V9H</t>
+  </si>
+  <si>
+    <t>B07JMY6DVS</t>
+  </si>
+  <si>
+    <t>B07JYLYVWS</t>
+  </si>
+  <si>
+    <t>B07MVFSJ5F</t>
+  </si>
+  <si>
+    <t>B07Q4VDYMT</t>
+  </si>
+  <si>
+    <t>B07QGRWZNB</t>
+  </si>
+  <si>
+    <t>B07R1RK2ZN</t>
+  </si>
+  <si>
+    <t>B07S9GBDCN</t>
+  </si>
+  <si>
+    <t>B07TT36Y79</t>
+  </si>
+  <si>
+    <t>B07Z4QPGVS</t>
+  </si>
+  <si>
+    <t>B082JP6VP5</t>
+  </si>
+  <si>
+    <t>B084G9GP5G</t>
+  </si>
+  <si>
+    <t>B087G5BY6G</t>
+  </si>
+  <si>
+    <t>B0886KBDBP</t>
+  </si>
+  <si>
+    <t>B08DRJWM8T</t>
+  </si>
+  <si>
+    <t>B08F7PZNWX</t>
+  </si>
+  <si>
+    <t>B002BUPTV2</t>
+  </si>
+  <si>
+    <t>B003M62ZS4</t>
+  </si>
+  <si>
+    <t>B00453ULCA</t>
+  </si>
+  <si>
+    <t>B008OXTB4G</t>
+  </si>
+  <si>
+    <t>B00A3Q3N5A</t>
+  </si>
+  <si>
+    <t>B00JRXWS9W</t>
+  </si>
+  <si>
+    <t>B00X0P6MF4</t>
+  </si>
+  <si>
+    <t>B010TJC4GY</t>
+  </si>
+  <si>
+    <t>B01BCMVVAW</t>
+  </si>
+  <si>
+    <t>B01BKWBQBS</t>
+  </si>
+  <si>
+    <t>B01GU9YA28</t>
+  </si>
+  <si>
+    <t>B01H3Q8R08</t>
+  </si>
+  <si>
+    <t>B01M0560JO</t>
+  </si>
+  <si>
+    <t>B01N2ULIA2</t>
+  </si>
+  <si>
+    <t>B01N5HLF7U</t>
+  </si>
+  <si>
+    <t>B06X92XFLB</t>
+  </si>
+  <si>
+    <t>B06XNJ5MN4</t>
+  </si>
+  <si>
+    <t>B06Y2J4KYS</t>
+  </si>
+  <si>
+    <t>B072FJ987Y</t>
+  </si>
+  <si>
+    <t>B0793JQ2RL</t>
+  </si>
+  <si>
+    <t>B079JQ9XXV</t>
+  </si>
+  <si>
+    <t>B07BGT9559</t>
+  </si>
+  <si>
+    <t>B07CTYM15Q</t>
+  </si>
+  <si>
+    <t>B07DGJ197Q</t>
+  </si>
+  <si>
+    <t>B07DJHPP8Q</t>
+  </si>
+  <si>
+    <t>B07G3G95W5</t>
+  </si>
+  <si>
+    <t>B07GJ2WKG8</t>
   </si>
 </sst>
 </file>
@@ -175,8 +655,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF003366"/>
-      <name val="Helvetica"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -519,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE51650-485F-4E38-AF27-2BF3B4931DC4}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,183 +1027,1885 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="1"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="1"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="1"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="1"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="1"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="1"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="1"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="1"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="1"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="1"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="1"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="1"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="1"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="1"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="1"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="1"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="1"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
